--- a/g_profiler/TNF.gprofiler_toJoin.xlsx
+++ b/g_profiler/TNF.gprofiler_toJoin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Desktop\ABRG_GBIRG_OntologyStudy\g_profiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\g_profiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06218F5-1A74-4139-880A-653193B59288}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30A6185-0486-4998-B011-7169715EE34A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,13 +755,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -786,7 +790,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -809,7 +813,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -832,7 +836,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -855,7 +859,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -878,7 +882,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -901,7 +905,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -924,7 +928,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -947,7 +951,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -970,7 +974,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -993,7 +997,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1016,7 +1020,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1039,7 +1043,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1062,7 +1066,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1085,7 +1089,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1108,7 +1112,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1154,7 +1158,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1177,7 +1181,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1200,7 +1204,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1269,7 +1273,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1315,7 +1319,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1361,7 +1365,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1384,7 +1388,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1453,7 +1457,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1706,7 +1710,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -1729,7 +1733,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -1752,7 +1756,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -1775,7 +1779,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -1798,7 +1802,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -1821,7 +1825,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -1844,7 +1848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -1867,7 +1871,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>104</v>
       </c>
@@ -1890,7 +1894,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -1913,7 +1917,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -1936,7 +1940,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -1959,7 +1963,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -1982,7 +1986,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -2005,7 +2009,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -2028,7 +2032,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -2051,7 +2055,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -2074,7 +2078,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -2097,7 +2101,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -2143,7 +2147,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -2167,7 +2171,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F61" xr:uid="{6A502ABD-441B-470C-89C3-B5C092C4D9CE}"/>
+  <autoFilter ref="A1:F61" xr:uid="{6A502ABD-441B-470C-89C3-B5C092C4D9CE}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="KEGG"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:G61">
     <sortCondition ref="G1"/>
   </sortState>
